--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gal-Gpr151.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gal-Gpr151.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.821888</v>
+        <v>7.37922</v>
       </c>
       <c r="H2">
-        <v>3.643776</v>
+        <v>14.75844</v>
       </c>
       <c r="I2">
-        <v>0.04008861639797671</v>
+        <v>0.1006468077466098</v>
       </c>
       <c r="J2">
-        <v>0.03735404616089616</v>
+        <v>0.09890402754036515</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.416583</v>
+        <v>0.885389</v>
       </c>
       <c r="N2">
-        <v>0.8331660000000001</v>
+        <v>1.770778</v>
       </c>
       <c r="O2">
-        <v>0.1582690299585562</v>
+        <v>0.3115960462871694</v>
       </c>
       <c r="P2">
-        <v>0.122017518693299</v>
+        <v>0.2456853642655439</v>
       </c>
       <c r="Q2">
-        <v>0.7589675687040001</v>
+        <v>6.53348021658</v>
       </c>
       <c r="R2">
-        <v>3.035870274816</v>
+        <v>26.13392086632</v>
       </c>
       <c r="S2">
-        <v>0.006344786429688445</v>
+        <v>0.03136114736526847</v>
       </c>
       <c r="T2">
-        <v>0.004557848025707501</v>
+        <v>0.02429927203358399</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.821888</v>
+        <v>7.37922</v>
       </c>
       <c r="H3">
-        <v>3.643776</v>
+        <v>14.75844</v>
       </c>
       <c r="I3">
-        <v>0.04008861639797671</v>
+        <v>0.1006468077466098</v>
       </c>
       <c r="J3">
-        <v>0.03735404616089616</v>
+        <v>0.09890402754036515</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>1.180203</v>
       </c>
       <c r="O3">
-        <v>0.1494616790765009</v>
+        <v>0.1384501006963253</v>
       </c>
       <c r="P3">
-        <v>0.1728412364575457</v>
+        <v>0.1637464458911776</v>
       </c>
       <c r="Q3">
-        <v>0.7167325610880001</v>
+        <v>2.90299252722</v>
       </c>
       <c r="R3">
-        <v>4.300395366528</v>
+        <v>17.41795516332</v>
       </c>
       <c r="S3">
-        <v>0.005991711918695348</v>
+        <v>0.01393456066728182</v>
       </c>
       <c r="T3">
-        <v>0.006456319525141531</v>
+        <v>0.01619518299405794</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.821888</v>
+        <v>7.37922</v>
       </c>
       <c r="H4">
-        <v>3.643776</v>
+        <v>14.75844</v>
       </c>
       <c r="I4">
-        <v>0.04008861639797671</v>
+        <v>0.1006468077466098</v>
       </c>
       <c r="J4">
-        <v>0.03735404616089616</v>
+        <v>0.09890402754036515</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4432936666666666</v>
+        <v>0.2625276666666667</v>
       </c>
       <c r="N4">
-        <v>1.329881</v>
+        <v>0.787583</v>
       </c>
       <c r="O4">
-        <v>0.1684169987976103</v>
+        <v>0.0923916865630014</v>
       </c>
       <c r="P4">
-        <v>0.194761643870925</v>
+        <v>0.1092726565635838</v>
       </c>
       <c r="Q4">
-        <v>0.807631411776</v>
+        <v>1.93724940842</v>
       </c>
       <c r="R4">
-        <v>4.845788470655999</v>
+        <v>11.62349645052</v>
       </c>
       <c r="S4">
-        <v>0.006751604459695906</v>
+        <v>0.009298928314891432</v>
       </c>
       <c r="T4">
-        <v>0.007275135435526553</v>
+        <v>0.01080750583417356</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.821888</v>
+        <v>7.37922</v>
       </c>
       <c r="H5">
-        <v>3.643776</v>
+        <v>14.75844</v>
       </c>
       <c r="I5">
-        <v>0.04008861639797671</v>
+        <v>0.1006468077466098</v>
       </c>
       <c r="J5">
-        <v>0.03735404616089616</v>
+        <v>0.09890402754036515</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.6515265</v>
+        <v>0.4315005</v>
       </c>
       <c r="N5">
-        <v>1.303053</v>
+        <v>0.863001</v>
       </c>
       <c r="O5">
-        <v>0.2475292250218883</v>
+        <v>0.1518585048729279</v>
       </c>
       <c r="P5">
-        <v>0.1908326717435173</v>
+        <v>0.1197364746154112</v>
       </c>
       <c r="Q5">
-        <v>1.187008312032</v>
+        <v>3.18413711961</v>
       </c>
       <c r="R5">
-        <v>4.748033248128</v>
+        <v>12.73654847844</v>
       </c>
       <c r="S5">
-        <v>0.009923104149190938</v>
+        <v>0.01528407374463318</v>
       </c>
       <c r="T5">
-        <v>0.007128372429314488</v>
+        <v>0.01184241958294886</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.821888</v>
+        <v>7.37922</v>
       </c>
       <c r="H6">
-        <v>3.643776</v>
+        <v>14.75844</v>
       </c>
       <c r="I6">
-        <v>0.04008861639797671</v>
+        <v>0.1006468077466098</v>
       </c>
       <c r="J6">
-        <v>0.03735404616089616</v>
+        <v>0.09890402754036515</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.5183209999999999</v>
+        <v>0.565356</v>
       </c>
       <c r="N6">
-        <v>1.554963</v>
+        <v>1.696068</v>
       </c>
       <c r="O6">
-        <v>0.1969215303484511</v>
+        <v>0.198966436611172</v>
       </c>
       <c r="P6">
-        <v>0.2277249994837622</v>
+        <v>0.2353197771821947</v>
       </c>
       <c r="Q6">
-        <v>0.9443228100479998</v>
+        <v>4.17188630232</v>
       </c>
       <c r="R6">
-        <v>5.665936860287999</v>
+        <v>25.03131781392</v>
       </c>
       <c r="S6">
-        <v>0.007894311690641585</v>
+        <v>0.02002533669363265</v>
       </c>
       <c r="T6">
-        <v>0.008506450142706509</v>
+        <v>0.02327407372322038</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.821888</v>
+        <v>7.37922</v>
       </c>
       <c r="H7">
-        <v>3.643776</v>
+        <v>14.75844</v>
       </c>
       <c r="I7">
-        <v>0.04008861639797671</v>
+        <v>0.1006468077466098</v>
       </c>
       <c r="J7">
-        <v>0.03735404616089616</v>
+        <v>0.09890402754036515</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2089943333333334</v>
+        <v>0.30329</v>
       </c>
       <c r="N7">
-        <v>0.6269830000000001</v>
+        <v>0.90987</v>
       </c>
       <c r="O7">
-        <v>0.07940153679699322</v>
+        <v>0.106737224969404</v>
       </c>
       <c r="P7">
-        <v>0.09182192975095081</v>
+        <v>0.1262392814820889</v>
       </c>
       <c r="Q7">
-        <v>0.3807642679680001</v>
+        <v>2.2380436338</v>
       </c>
       <c r="R7">
-        <v>2.284585607808</v>
+        <v>13.4282618028</v>
       </c>
       <c r="S7">
-        <v>0.003183097750064494</v>
+        <v>0.01074276096090224</v>
       </c>
       <c r="T7">
-        <v>0.003429920602499581</v>
+        <v>0.01248557337238043</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>1.874278</v>
       </c>
       <c r="I8">
-        <v>0.01374713333369322</v>
+        <v>0.008521230226216335</v>
       </c>
       <c r="J8">
-        <v>0.01921409738972762</v>
+        <v>0.01256051743478989</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.416583</v>
+        <v>0.885389</v>
       </c>
       <c r="N8">
-        <v>0.8331660000000001</v>
+        <v>1.770778</v>
       </c>
       <c r="O8">
-        <v>0.1582690299585562</v>
+        <v>0.3115960462871694</v>
       </c>
       <c r="P8">
-        <v>0.122017518693299</v>
+        <v>0.2456853642655439</v>
       </c>
       <c r="Q8">
-        <v>0.260264117358</v>
+        <v>0.5531550413806666</v>
       </c>
       <c r="R8">
-        <v>1.561584704148</v>
+        <v>3.318930248284</v>
       </c>
       <c r="S8">
-        <v>0.002175745457434559</v>
+        <v>0.002655181647991732</v>
       </c>
       <c r="T8">
-        <v>0.002344456487425957</v>
+        <v>0.003085935301330069</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>1.874278</v>
       </c>
       <c r="I9">
-        <v>0.01374713333369322</v>
+        <v>0.008521230226216335</v>
       </c>
       <c r="J9">
-        <v>0.01921409738972762</v>
+        <v>0.01256051743478989</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>1.180203</v>
       </c>
       <c r="O9">
-        <v>0.1494616790765009</v>
+        <v>0.1384501006963253</v>
       </c>
       <c r="P9">
-        <v>0.1728412364575457</v>
+        <v>0.1637464458911776</v>
       </c>
       <c r="Q9">
         <v>0.2457809464926667</v>
@@ -1013,10 +1013,10 @@
         <v>2.212028518434</v>
       </c>
       <c r="S9">
-        <v>0.002054669630542324</v>
+        <v>0.001179765182876222</v>
       </c>
       <c r="T9">
-        <v>0.003320988350256223</v>
+        <v>0.002056740088501016</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>1.874278</v>
       </c>
       <c r="I10">
-        <v>0.01374713333369322</v>
+        <v>0.008521230226216335</v>
       </c>
       <c r="J10">
-        <v>0.01921409738972762</v>
+        <v>0.01256051743478989</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4432936666666666</v>
+        <v>0.2625276666666667</v>
       </c>
       <c r="N10">
-        <v>1.329881</v>
+        <v>0.787583</v>
       </c>
       <c r="O10">
-        <v>0.1684169987976103</v>
+        <v>0.0923916865630014</v>
       </c>
       <c r="P10">
-        <v>0.194761643870925</v>
+        <v>0.1092726565635838</v>
       </c>
       <c r="Q10">
-        <v>0.2769518556575555</v>
+        <v>0.1640166100082222</v>
       </c>
       <c r="R10">
-        <v>2.492566700918</v>
+        <v>1.476149490074</v>
       </c>
       <c r="S10">
-        <v>0.002315250938131199</v>
+        <v>0.0007872908321917531</v>
       </c>
       <c r="T10">
-        <v>0.003742169193119401</v>
+        <v>0.001372521107912703</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>1.874278</v>
       </c>
       <c r="I11">
-        <v>0.01374713333369322</v>
+        <v>0.008521230226216335</v>
       </c>
       <c r="J11">
-        <v>0.01921409738972762</v>
+        <v>0.01256051743478989</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.6515265</v>
+        <v>0.4315005</v>
       </c>
       <c r="N11">
-        <v>1.303053</v>
+        <v>0.863001</v>
       </c>
       <c r="O11">
-        <v>0.2475292250218883</v>
+        <v>0.1518585048729279</v>
       </c>
       <c r="P11">
-        <v>0.1908326717435173</v>
+        <v>0.1197364746154112</v>
       </c>
       <c r="Q11">
-        <v>0.407047261789</v>
+        <v>0.269583964713</v>
       </c>
       <c r="R11">
-        <v>2.442283570734</v>
+        <v>1.617503788278</v>
       </c>
       <c r="S11">
-        <v>0.003402817260361649</v>
+        <v>0.001294021281831214</v>
       </c>
       <c r="T11">
-        <v>0.003666677540021863</v>
+        <v>0.00150395207698715</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>1.874278</v>
       </c>
       <c r="I12">
-        <v>0.01374713333369322</v>
+        <v>0.008521230226216335</v>
       </c>
       <c r="J12">
-        <v>0.01921409738972762</v>
+        <v>0.01256051743478989</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.5183209999999999</v>
+        <v>0.565356</v>
       </c>
       <c r="N12">
-        <v>1.554963</v>
+        <v>1.696068</v>
       </c>
       <c r="O12">
-        <v>0.1969215303484511</v>
+        <v>0.198966436611172</v>
       </c>
       <c r="P12">
-        <v>0.2277249994837622</v>
+        <v>0.2353197771821947</v>
       </c>
       <c r="Q12">
-        <v>0.3238258824126666</v>
+        <v>0.353211437656</v>
       </c>
       <c r="R12">
-        <v>2.914432941714</v>
+        <v>3.178902938904</v>
       </c>
       <c r="S12">
-        <v>0.002707106533975072</v>
+        <v>0.001695438813653675</v>
       </c>
       <c r="T12">
-        <v>0.004375530318156679</v>
+        <v>0.002955738164047829</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>1.874278</v>
       </c>
       <c r="I13">
-        <v>0.01374713333369322</v>
+        <v>0.008521230226216335</v>
       </c>
       <c r="J13">
-        <v>0.01921409738972762</v>
+        <v>0.01256051743478989</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.2089943333333334</v>
+        <v>0.30329</v>
       </c>
       <c r="N13">
-        <v>0.6269830000000001</v>
+        <v>0.90987</v>
       </c>
       <c r="O13">
-        <v>0.07940153679699322</v>
+        <v>0.106737224969404</v>
       </c>
       <c r="P13">
-        <v>0.09182192975095081</v>
+        <v>0.1262392814820889</v>
       </c>
       <c r="Q13">
-        <v>0.1305711603637778</v>
+        <v>0.1894832582066667</v>
       </c>
       <c r="R13">
-        <v>1.175140443274</v>
+        <v>1.70534932386</v>
       </c>
       <c r="S13">
-        <v>0.001091543513248414</v>
+        <v>0.000909532467671738</v>
       </c>
       <c r="T13">
-        <v>0.001764275500747497</v>
+        <v>0.001585630696011126</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.8733626666666668</v>
+        <v>0.364443</v>
       </c>
       <c r="H14">
-        <v>2.620088</v>
+        <v>1.093329</v>
       </c>
       <c r="I14">
-        <v>0.01921737281342981</v>
+        <v>0.004970718389693994</v>
       </c>
       <c r="J14">
-        <v>0.02685974332604697</v>
+        <v>0.007326969620547964</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.416583</v>
+        <v>0.885389</v>
       </c>
       <c r="N14">
-        <v>0.8331660000000001</v>
+        <v>1.770778</v>
       </c>
       <c r="O14">
-        <v>0.1582690299585562</v>
+        <v>0.3115960462871694</v>
       </c>
       <c r="P14">
-        <v>0.122017518693299</v>
+        <v>0.2456853642655439</v>
       </c>
       <c r="Q14">
-        <v>0.3638280397680001</v>
+        <v>0.322673823327</v>
       </c>
       <c r="R14">
-        <v>2.182968238608001</v>
+        <v>1.936042939962</v>
       </c>
       <c r="S14">
-        <v>0.003041514953533467</v>
+        <v>0.001548856197435574</v>
       </c>
       <c r="T14">
-        <v>0.003277359233383149</v>
+        <v>0.0018001292001869</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.8733626666666668</v>
+        <v>0.364443</v>
       </c>
       <c r="H15">
-        <v>2.620088</v>
+        <v>1.093329</v>
       </c>
       <c r="I15">
-        <v>0.01921737281342981</v>
+        <v>0.004970718389693994</v>
       </c>
       <c r="J15">
-        <v>0.02685974332604697</v>
+        <v>0.007326969620547964</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>1.180203</v>
       </c>
       <c r="O15">
-        <v>0.1494616790765009</v>
+        <v>0.1384501006963253</v>
       </c>
       <c r="P15">
-        <v>0.1728412364575457</v>
+        <v>0.1637464458911776</v>
       </c>
       <c r="Q15">
-        <v>0.3435817464293335</v>
+        <v>0.143372240643</v>
       </c>
       <c r="R15">
-        <v>3.092235717864001</v>
+        <v>1.290350165787</v>
       </c>
       <c r="S15">
-        <v>0.00287226080813432</v>
+        <v>0.0006881964615862093</v>
       </c>
       <c r="T15">
-        <v>0.00464247124740627</v>
+        <v>0.001199765234517359</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.8733626666666668</v>
+        <v>0.364443</v>
       </c>
       <c r="H16">
-        <v>2.620088</v>
+        <v>1.093329</v>
       </c>
       <c r="I16">
-        <v>0.01921737281342981</v>
+        <v>0.004970718389693994</v>
       </c>
       <c r="J16">
-        <v>0.02685974332604697</v>
+        <v>0.007326969620547964</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.4432936666666666</v>
+        <v>0.2625276666666667</v>
       </c>
       <c r="N16">
-        <v>1.329881</v>
+        <v>0.787583</v>
       </c>
       <c r="O16">
-        <v>0.1684169987976103</v>
+        <v>0.0923916865630014</v>
       </c>
       <c r="P16">
-        <v>0.194761643870925</v>
+        <v>0.1092726565635838</v>
       </c>
       <c r="Q16">
-        <v>0.3871561388364445</v>
+        <v>0.09567637042300001</v>
       </c>
       <c r="R16">
-        <v>3.484405249528</v>
+        <v>0.861087333807</v>
       </c>
       <c r="S16">
-        <v>0.003236532254012638</v>
+        <v>0.0004592530554535545</v>
       </c>
       <c r="T16">
-        <v>0.005231247764132015</v>
+        <v>0.0008006374349979498</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.8733626666666668</v>
+        <v>0.364443</v>
       </c>
       <c r="H17">
-        <v>2.620088</v>
+        <v>1.093329</v>
       </c>
       <c r="I17">
-        <v>0.01921737281342981</v>
+        <v>0.004970718389693994</v>
       </c>
       <c r="J17">
-        <v>0.02685974332604697</v>
+        <v>0.007326969620547964</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.6515265</v>
+        <v>0.4315005</v>
       </c>
       <c r="N17">
-        <v>1.303053</v>
+        <v>0.863001</v>
       </c>
       <c r="O17">
-        <v>0.2475292250218883</v>
+        <v>0.1518585048729279</v>
       </c>
       <c r="P17">
-        <v>0.1908326717435173</v>
+        <v>0.1197364746154112</v>
       </c>
       <c r="Q17">
-        <v>0.5690189214440001</v>
+        <v>0.1572573367215</v>
       </c>
       <c r="R17">
-        <v>3.414113528664001</v>
+        <v>0.943544020329</v>
       </c>
       <c r="S17">
-        <v>0.004756861399464986</v>
+        <v>0.0007548458628032975</v>
       </c>
       <c r="T17">
-        <v>0.00512571658125465</v>
+        <v>0.0008773055119786303</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.8733626666666668</v>
+        <v>0.364443</v>
       </c>
       <c r="H18">
-        <v>2.620088</v>
+        <v>1.093329</v>
       </c>
       <c r="I18">
-        <v>0.01921737281342981</v>
+        <v>0.004970718389693994</v>
       </c>
       <c r="J18">
-        <v>0.02685974332604697</v>
+        <v>0.007326969620547964</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.5183209999999999</v>
+        <v>0.565356</v>
       </c>
       <c r="N18">
-        <v>1.554963</v>
+        <v>1.696068</v>
       </c>
       <c r="O18">
-        <v>0.1969215303484511</v>
+        <v>0.198966436611172</v>
       </c>
       <c r="P18">
-        <v>0.2277249994837622</v>
+        <v>0.2353197771821947</v>
       </c>
       <c r="Q18">
-        <v>0.4526822107493333</v>
+        <v>0.206040036708</v>
       </c>
       <c r="R18">
-        <v>4.074139896744001</v>
+        <v>1.854360330372</v>
       </c>
       <c r="S18">
-        <v>0.003784314463697318</v>
+        <v>0.0009890061253950368</v>
       </c>
       <c r="T18">
-        <v>0.006116635035058032</v>
+        <v>0.001724180858528057</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.8733626666666668</v>
+        <v>0.364443</v>
       </c>
       <c r="H19">
-        <v>2.620088</v>
+        <v>1.093329</v>
       </c>
       <c r="I19">
-        <v>0.01921737281342981</v>
+        <v>0.004970718389693994</v>
       </c>
       <c r="J19">
-        <v>0.02685974332604697</v>
+        <v>0.007326969620547964</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.2089943333333334</v>
+        <v>0.30329</v>
       </c>
       <c r="N19">
-        <v>0.6269830000000001</v>
+        <v>0.90987</v>
       </c>
       <c r="O19">
-        <v>0.07940153679699322</v>
+        <v>0.106737224969404</v>
       </c>
       <c r="P19">
-        <v>0.09182192975095081</v>
+        <v>0.1262392814820889</v>
       </c>
       <c r="Q19">
-        <v>0.1825278482782223</v>
+        <v>0.11053191747</v>
       </c>
       <c r="R19">
-        <v>1.642750634504</v>
+        <v>0.9947872572299999</v>
       </c>
       <c r="S19">
-        <v>0.001525888934587084</v>
+        <v>0.0005305606870203213</v>
       </c>
       <c r="T19">
-        <v>0.002466313464812855</v>
+        <v>0.0009249513803390683</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>36.970641</v>
+        <v>63.354893</v>
       </c>
       <c r="H20">
-        <v>73.941282</v>
+        <v>126.709786</v>
       </c>
       <c r="I20">
-        <v>0.8134977808933976</v>
+        <v>0.8641113472125828</v>
       </c>
       <c r="J20">
-        <v>0.7580065462377052</v>
+        <v>0.8491485661206588</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.416583</v>
+        <v>0.885389</v>
       </c>
       <c r="N20">
-        <v>0.8331660000000001</v>
+        <v>1.770778</v>
       </c>
       <c r="O20">
-        <v>0.1582690299585562</v>
+        <v>0.3115960462871694</v>
       </c>
       <c r="P20">
-        <v>0.122017518693299</v>
+        <v>0.2456853642655439</v>
       </c>
       <c r="Q20">
-        <v>15.401340539703</v>
+        <v>56.093725358377</v>
       </c>
       <c r="R20">
-        <v>61.60536215881201</v>
+        <v>224.374901433508</v>
       </c>
       <c r="S20">
-        <v>0.1287515046554362</v>
+        <v>0.2692536793433203</v>
       </c>
       <c r="T20">
-        <v>0.09249007792520221</v>
+        <v>0.2086233747829183</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>36.970641</v>
+        <v>63.354893</v>
       </c>
       <c r="H21">
-        <v>73.941282</v>
+        <v>126.709786</v>
       </c>
       <c r="I21">
-        <v>0.8134977808933976</v>
+        <v>0.8641113472125828</v>
       </c>
       <c r="J21">
-        <v>0.7580065462377052</v>
+        <v>0.8491485661206588</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>1.180203</v>
       </c>
       <c r="O21">
-        <v>0.1494616790765009</v>
+        <v>0.1384501006963253</v>
       </c>
       <c r="P21">
-        <v>0.1728412364575457</v>
+        <v>0.1637464458911776</v>
       </c>
       <c r="Q21">
-        <v>14.544287140041</v>
+        <v>24.92387826109301</v>
       </c>
       <c r="R21">
-        <v>87.26572284024601</v>
+        <v>149.543269566558</v>
       </c>
       <c r="S21">
-        <v>0.1215867442573347</v>
+        <v>0.1196363030344194</v>
       </c>
       <c r="T21">
-        <v>0.1310147886946388</v>
+        <v>0.1390450597358475</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>36.970641</v>
+        <v>63.354893</v>
       </c>
       <c r="H22">
-        <v>73.941282</v>
+        <v>126.709786</v>
       </c>
       <c r="I22">
-        <v>0.8134977808933976</v>
+        <v>0.8641113472125828</v>
       </c>
       <c r="J22">
-        <v>0.7580065462377052</v>
+        <v>0.8491485661206588</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.4432936666666666</v>
+        <v>0.2625276666666667</v>
       </c>
       <c r="N22">
-        <v>1.329881</v>
+        <v>0.787583</v>
       </c>
       <c r="O22">
-        <v>0.1684169987976103</v>
+        <v>0.0923916865630014</v>
       </c>
       <c r="P22">
-        <v>0.194761643870925</v>
+        <v>0.1092726565635838</v>
       </c>
       <c r="Q22">
-        <v>16.388851007907</v>
+        <v>16.63241223120633</v>
       </c>
       <c r="R22">
-        <v>98.33310604744199</v>
+        <v>99.79447338723801</v>
       </c>
       <c r="S22">
-        <v>0.137006854786582</v>
+        <v>0.07983670474719781</v>
       </c>
       <c r="T22">
-        <v>0.1476306010101778</v>
+        <v>0.0927887196371624</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>36.970641</v>
+        <v>63.354893</v>
       </c>
       <c r="H23">
-        <v>73.941282</v>
+        <v>126.709786</v>
       </c>
       <c r="I23">
-        <v>0.8134977808933976</v>
+        <v>0.8641113472125828</v>
       </c>
       <c r="J23">
-        <v>0.7580065462377052</v>
+        <v>0.8491485661206588</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.6515265</v>
+        <v>0.4315005</v>
       </c>
       <c r="N23">
-        <v>1.303053</v>
+        <v>0.863001</v>
       </c>
       <c r="O23">
-        <v>0.2475292250218883</v>
+        <v>0.1518585048729279</v>
       </c>
       <c r="P23">
-        <v>0.1908326717435173</v>
+        <v>0.1197364746154112</v>
       </c>
       <c r="Q23">
-        <v>24.0873523334865</v>
+        <v>27.3376680069465</v>
       </c>
       <c r="R23">
-        <v>96.349409333946</v>
+        <v>109.350672027786</v>
       </c>
       <c r="S23">
-        <v>0.2013644752615686</v>
+        <v>0.1312226572314343</v>
       </c>
       <c r="T23">
-        <v>0.1446524144176173</v>
+        <v>0.1016740557320191</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>36.970641</v>
+        <v>63.354893</v>
       </c>
       <c r="H24">
-        <v>73.941282</v>
+        <v>126.709786</v>
       </c>
       <c r="I24">
-        <v>0.8134977808933976</v>
+        <v>0.8641113472125828</v>
       </c>
       <c r="J24">
-        <v>0.7580065462377052</v>
+        <v>0.8491485661206588</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.5183209999999999</v>
+        <v>0.565356</v>
       </c>
       <c r="N24">
-        <v>1.554963</v>
+        <v>1.696068</v>
       </c>
       <c r="O24">
-        <v>0.1969215303484511</v>
+        <v>0.198966436611172</v>
       </c>
       <c r="P24">
-        <v>0.2277249994837622</v>
+        <v>0.2353197771821947</v>
       </c>
       <c r="Q24">
-        <v>19.162659613761</v>
+        <v>35.818068886908</v>
       </c>
       <c r="R24">
-        <v>114.975957682566</v>
+        <v>214.908413321448</v>
       </c>
       <c r="S24">
-        <v>0.1601952279485968</v>
+        <v>0.1719291555901667</v>
       </c>
       <c r="T24">
-        <v>0.1726170403506698</v>
+        <v>0.1998214513740936</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>36.970641</v>
+        <v>63.354893</v>
       </c>
       <c r="H25">
-        <v>73.941282</v>
+        <v>126.709786</v>
       </c>
       <c r="I25">
-        <v>0.8134977808933976</v>
+        <v>0.8641113472125828</v>
       </c>
       <c r="J25">
-        <v>0.7580065462377052</v>
+        <v>0.8491485661206588</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.2089943333333334</v>
+        <v>0.30329</v>
       </c>
       <c r="N25">
-        <v>0.6269830000000001</v>
+        <v>0.90987</v>
       </c>
       <c r="O25">
-        <v>0.07940153679699322</v>
+        <v>0.106737224969404</v>
       </c>
       <c r="P25">
-        <v>0.09182192975095081</v>
+        <v>0.1262392814820889</v>
       </c>
       <c r="Q25">
-        <v>7.726654468701001</v>
+        <v>19.21490549797</v>
       </c>
       <c r="R25">
-        <v>46.35992681220601</v>
+        <v>115.28943298782</v>
       </c>
       <c r="S25">
-        <v>0.06459297398387943</v>
+        <v>0.09223284726604419</v>
       </c>
       <c r="T25">
-        <v>0.06960162383939943</v>
+        <v>0.107195904858618</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>4.285985333333333</v>
+        <v>1.014457666666667</v>
       </c>
       <c r="H26">
-        <v>12.857956</v>
+        <v>3.043373</v>
       </c>
       <c r="I26">
-        <v>0.09430833394553031</v>
+        <v>0.0138364116727885</v>
       </c>
       <c r="J26">
-        <v>0.1318129001230514</v>
+        <v>0.0203952346594629</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.416583</v>
+        <v>0.885389</v>
       </c>
       <c r="N26">
-        <v>0.8331660000000001</v>
+        <v>1.770778</v>
       </c>
       <c r="O26">
-        <v>0.1582690299585562</v>
+        <v>0.3115960462871694</v>
       </c>
       <c r="P26">
-        <v>0.122017518693299</v>
+        <v>0.2456853642655439</v>
       </c>
       <c r="Q26">
-        <v>1.785468628116</v>
+        <v>0.8981896590323334</v>
       </c>
       <c r="R26">
-        <v>10.712811768696</v>
+        <v>5.389137954194</v>
       </c>
       <c r="S26">
-        <v>0.01492608853056666</v>
+        <v>0.004311371172042537</v>
       </c>
       <c r="T26">
-        <v>0.01608348300478237</v>
+        <v>0.005010810656591388</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>4.285985333333333</v>
+        <v>1.014457666666667</v>
       </c>
       <c r="H27">
-        <v>12.857956</v>
+        <v>3.043373</v>
       </c>
       <c r="I27">
-        <v>0.09430833394553031</v>
+        <v>0.0138364116727885</v>
       </c>
       <c r="J27">
-        <v>0.1318129001230514</v>
+        <v>0.0203952346594629</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>1.180203</v>
       </c>
       <c r="O27">
-        <v>0.1494616790765009</v>
+        <v>0.1384501006963253</v>
       </c>
       <c r="P27">
-        <v>0.1728412364575457</v>
+        <v>0.1637464458911776</v>
       </c>
       <c r="Q27">
-        <v>1.686110916118667</v>
+        <v>0.3990886605243334</v>
       </c>
       <c r="R27">
-        <v>15.174998245068</v>
+        <v>3.591797944719</v>
       </c>
       <c r="S27">
-        <v>0.01409548194240633</v>
+        <v>0.001915652589373379</v>
       </c>
       <c r="T27">
-        <v>0.02278270463832318</v>
+        <v>0.003339647188603612</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>4.285985333333333</v>
+        <v>1.014457666666667</v>
       </c>
       <c r="H28">
-        <v>12.857956</v>
+        <v>3.043373</v>
       </c>
       <c r="I28">
-        <v>0.09430833394553031</v>
+        <v>0.0138364116727885</v>
       </c>
       <c r="J28">
-        <v>0.1318129001230514</v>
+        <v>0.0203952346594629</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.4432936666666666</v>
+        <v>0.2625276666666667</v>
       </c>
       <c r="N28">
-        <v>1.329881</v>
+        <v>0.787583</v>
       </c>
       <c r="O28">
-        <v>0.1684169987976103</v>
+        <v>0.0923916865630014</v>
       </c>
       <c r="P28">
-        <v>0.194761643870925</v>
+        <v>0.1092726565635838</v>
       </c>
       <c r="Q28">
-        <v>1.899950153692888</v>
+        <v>0.2663232041621111</v>
       </c>
       <c r="R28">
-        <v>17.09955138323599</v>
+        <v>2.396908837459</v>
       </c>
       <c r="S28">
-        <v>0.01588312656470901</v>
+        <v>0.001278369410428929</v>
       </c>
       <c r="T28">
-        <v>0.02567209711135954</v>
+        <v>0.002228641472477191</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>4.285985333333333</v>
+        <v>1.014457666666667</v>
       </c>
       <c r="H29">
-        <v>12.857956</v>
+        <v>3.043373</v>
       </c>
       <c r="I29">
-        <v>0.09430833394553031</v>
+        <v>0.0138364116727885</v>
       </c>
       <c r="J29">
-        <v>0.1318129001230514</v>
+        <v>0.0203952346594629</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.6515265</v>
+        <v>0.4315005</v>
       </c>
       <c r="N29">
-        <v>1.303053</v>
+        <v>0.863001</v>
       </c>
       <c r="O29">
-        <v>0.2475292250218883</v>
+        <v>0.1518585048729279</v>
       </c>
       <c r="P29">
-        <v>0.1908326717435173</v>
+        <v>0.1197364746154112</v>
       </c>
       <c r="Q29">
-        <v>2.792433023277999</v>
+        <v>0.4377389903955</v>
       </c>
       <c r="R29">
-        <v>16.754598139668</v>
+        <v>2.626433942373</v>
       </c>
       <c r="S29">
-        <v>0.02334406881464256</v>
+        <v>0.002101176789435989</v>
       </c>
       <c r="T29">
-        <v>0.02515420790074329</v>
+        <v>0.002442053497078135</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>4.285985333333333</v>
+        <v>1.014457666666667</v>
       </c>
       <c r="H30">
-        <v>12.857956</v>
+        <v>3.043373</v>
       </c>
       <c r="I30">
-        <v>0.09430833394553031</v>
+        <v>0.0138364116727885</v>
       </c>
       <c r="J30">
-        <v>0.1318129001230514</v>
+        <v>0.0203952346594629</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.5183209999999999</v>
+        <v>0.565356</v>
       </c>
       <c r="N30">
-        <v>1.554963</v>
+        <v>1.696068</v>
       </c>
       <c r="O30">
-        <v>0.1969215303484511</v>
+        <v>0.198966436611172</v>
       </c>
       <c r="P30">
-        <v>0.2277249994837622</v>
+        <v>0.2353197771821947</v>
       </c>
       <c r="Q30">
-        <v>2.221516203958666</v>
+        <v>0.573529728596</v>
       </c>
       <c r="R30">
-        <v>19.99364583562799</v>
+        <v>5.161767557364</v>
       </c>
       <c r="S30">
-        <v>0.01857134144516661</v>
+        <v>0.002752981526019954</v>
       </c>
       <c r="T30">
-        <v>0.03001709261247508</v>
+        <v>0.004799402075643386</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>4.285985333333333</v>
+        <v>1.014457666666667</v>
       </c>
       <c r="H31">
-        <v>12.857956</v>
+        <v>3.043373</v>
       </c>
       <c r="I31">
-        <v>0.09430833394553031</v>
+        <v>0.0138364116727885</v>
       </c>
       <c r="J31">
-        <v>0.1318129001230514</v>
+        <v>0.0203952346594629</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.2089943333333334</v>
+        <v>0.30329</v>
       </c>
       <c r="N31">
-        <v>0.6269830000000001</v>
+        <v>0.90987</v>
       </c>
       <c r="O31">
-        <v>0.07940153679699322</v>
+        <v>0.106737224969404</v>
       </c>
       <c r="P31">
-        <v>0.09182192975095081</v>
+        <v>0.1262392814820889</v>
       </c>
       <c r="Q31">
-        <v>0.8957466474164444</v>
+        <v>0.3076748657233334</v>
       </c>
       <c r="R31">
-        <v>8.061719826748</v>
+        <v>2.76907379151</v>
       </c>
       <c r="S31">
-        <v>0.00748822664803915</v>
+        <v>0.001476860185487713</v>
       </c>
       <c r="T31">
-        <v>0.01210331485536792</v>
+        <v>0.002574679769069192</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G32">
-        <v>0.869881</v>
+        <v>0.5802006666666667</v>
       </c>
       <c r="H32">
-        <v>2.609643</v>
+        <v>1.740602</v>
       </c>
       <c r="I32">
-        <v>0.01914076261597221</v>
+        <v>0.007913484752108601</v>
       </c>
       <c r="J32">
-        <v>0.02675266676257255</v>
+        <v>0.01166468462417536</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.416583</v>
+        <v>0.885389</v>
       </c>
       <c r="N32">
-        <v>0.8331660000000001</v>
+        <v>1.770778</v>
       </c>
       <c r="O32">
-        <v>0.1582690299585562</v>
+        <v>0.3115960462871694</v>
       </c>
       <c r="P32">
-        <v>0.122017518693299</v>
+        <v>0.2456853642655439</v>
       </c>
       <c r="Q32">
-        <v>0.362377636623</v>
+        <v>0.5137032880593333</v>
       </c>
       <c r="R32">
-        <v>2.174265819738</v>
+        <v>3.082219728356</v>
       </c>
       <c r="S32">
-        <v>0.003029389931896919</v>
+        <v>0.002465810561110841</v>
       </c>
       <c r="T32">
-        <v>0.003264294016797795</v>
+        <v>0.002865842290933213</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G33">
-        <v>0.869881</v>
+        <v>0.5802006666666667</v>
       </c>
       <c r="H33">
-        <v>2.609643</v>
+        <v>1.740602</v>
       </c>
       <c r="I33">
-        <v>0.01914076261597221</v>
+        <v>0.007913484752108601</v>
       </c>
       <c r="J33">
-        <v>0.02675266676257255</v>
+        <v>0.01166468462417536</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>1.180203</v>
       </c>
       <c r="O33">
-        <v>0.1494616790765009</v>
+        <v>0.1384501006963253</v>
       </c>
       <c r="P33">
-        <v>0.1728412364575457</v>
+        <v>0.1637464458911776</v>
       </c>
       <c r="Q33">
-        <v>0.3422120552810001</v>
+        <v>0.2282515224673334</v>
       </c>
       <c r="R33">
-        <v>3.079908497529</v>
+        <v>2.054263702206</v>
       </c>
       <c r="S33">
-        <v>0.002860810519387925</v>
+        <v>0.001095622760788271</v>
       </c>
       <c r="T33">
-        <v>0.004623964001779726</v>
+        <v>0.001910050649650183</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G34">
-        <v>0.869881</v>
+        <v>0.5802006666666667</v>
       </c>
       <c r="H34">
-        <v>2.609643</v>
+        <v>1.740602</v>
       </c>
       <c r="I34">
-        <v>0.01914076261597221</v>
+        <v>0.007913484752108601</v>
       </c>
       <c r="J34">
-        <v>0.02675266676257255</v>
+        <v>0.01166468462417536</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.4432936666666666</v>
+        <v>0.2625276666666667</v>
       </c>
       <c r="N34">
-        <v>1.329881</v>
+        <v>0.787583</v>
       </c>
       <c r="O34">
-        <v>0.1684169987976103</v>
+        <v>0.0923916865630014</v>
       </c>
       <c r="P34">
-        <v>0.194761643870925</v>
+        <v>0.1092726565635838</v>
       </c>
       <c r="Q34">
-        <v>0.3856127380536666</v>
+        <v>0.1523187272184444</v>
       </c>
       <c r="R34">
-        <v>3.470514642483</v>
+        <v>1.370868544966</v>
       </c>
       <c r="S34">
-        <v>0.003223629794479537</v>
+        <v>0.0007311402028379087</v>
       </c>
       <c r="T34">
-        <v>0.005210393356609688</v>
+        <v>0.001274631076860031</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G35">
-        <v>0.869881</v>
+        <v>0.5802006666666667</v>
       </c>
       <c r="H35">
-        <v>2.609643</v>
+        <v>1.740602</v>
       </c>
       <c r="I35">
-        <v>0.01914076261597221</v>
+        <v>0.007913484752108601</v>
       </c>
       <c r="J35">
-        <v>0.02675266676257255</v>
+        <v>0.01166468462417536</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.6515265</v>
+        <v>0.4315005</v>
       </c>
       <c r="N35">
-        <v>1.303053</v>
+        <v>0.863001</v>
       </c>
       <c r="O35">
-        <v>0.2475292250218883</v>
+        <v>0.1518585048729279</v>
       </c>
       <c r="P35">
-        <v>0.1908326717435173</v>
+        <v>0.1197364746154112</v>
       </c>
       <c r="Q35">
-        <v>0.5667505233465</v>
+        <v>0.250356877767</v>
       </c>
       <c r="R35">
-        <v>3.400503140079</v>
+        <v>1.502141266602</v>
       </c>
       <c r="S35">
-        <v>0.004737898136659533</v>
+        <v>0.001201729962789925</v>
       </c>
       <c r="T35">
-        <v>0.005105282874565712</v>
+        <v>0.001396688214399351</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G36">
-        <v>0.869881</v>
+        <v>0.5802006666666667</v>
       </c>
       <c r="H36">
-        <v>2.609643</v>
+        <v>1.740602</v>
       </c>
       <c r="I36">
-        <v>0.01914076261597221</v>
+        <v>0.007913484752108601</v>
       </c>
       <c r="J36">
-        <v>0.02675266676257255</v>
+        <v>0.01166468462417536</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.5183209999999999</v>
+        <v>0.565356</v>
       </c>
       <c r="N36">
-        <v>1.554963</v>
+        <v>1.696068</v>
       </c>
       <c r="O36">
-        <v>0.1969215303484511</v>
+        <v>0.198966436611172</v>
       </c>
       <c r="P36">
-        <v>0.2277249994837622</v>
+        <v>0.2353197771821947</v>
       </c>
       <c r="Q36">
-        <v>0.450877589801</v>
+        <v>0.328019928104</v>
       </c>
       <c r="R36">
-        <v>4.057898308209</v>
+        <v>2.952179352936</v>
       </c>
       <c r="S36">
-        <v>0.00376922826637367</v>
+        <v>0.001574517862303892</v>
       </c>
       <c r="T36">
-        <v>0.006092251024696097</v>
+        <v>0.002744930986661519</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G37">
-        <v>0.869881</v>
+        <v>0.5802006666666667</v>
       </c>
       <c r="H37">
-        <v>2.609643</v>
+        <v>1.740602</v>
       </c>
       <c r="I37">
-        <v>0.01914076261597221</v>
+        <v>0.007913484752108601</v>
       </c>
       <c r="J37">
-        <v>0.02675266676257255</v>
+        <v>0.01166468462417536</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.2089943333333334</v>
+        <v>0.30329</v>
       </c>
       <c r="N37">
-        <v>0.6269830000000001</v>
+        <v>0.90987</v>
       </c>
       <c r="O37">
-        <v>0.07940153679699322</v>
+        <v>0.106737224969404</v>
       </c>
       <c r="P37">
-        <v>0.09182192975095081</v>
+        <v>0.1262392814820889</v>
       </c>
       <c r="Q37">
-        <v>0.1818001996743334</v>
+        <v>0.1759690601933333</v>
       </c>
       <c r="R37">
-        <v>1.636201797069</v>
+        <v>1.58372154174</v>
       </c>
       <c r="S37">
-        <v>0.00151980596717463</v>
+        <v>0.0008446634022777638</v>
       </c>
       <c r="T37">
-        <v>0.002456481488123533</v>
+        <v>0.001472541405671068</v>
       </c>
     </row>
   </sheetData>
